--- a/Viable Titre/test16.xlsx
+++ b/Viable Titre/test16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,46 +493,28 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>dfgh</t>
+          <t>test</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Kan</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>60</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="G2" t="n">
-        <v>456</v>
-      </c>
-      <c r="H2" t="n">
-        <v>654</v>
-      </c>
-      <c r="I2" t="n">
-        <v>456</v>
-      </c>
-      <c r="J2" t="n">
-        <v>65</v>
-      </c>
-      <c r="K2" t="n">
-        <v>4077500</v>
-      </c>
+          <t>LB</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>hgdh</t>
+          <t>test</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -540,49 +522,70 @@
           <t>LB</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>give up</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Kan</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>0.01</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>10e-3</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>10e-3</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>345</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>65445</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>164500000.0</t>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>10e-2</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>10e-1</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>543</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>29727.272727272724</t>
         </is>
       </c>
     </row>
